--- a/Lending/Document/UIUX.CIBER_UIUXIBMB-718/UIUX.CIBER_UIUXIBMB-718_Manager_Link.xlsx
+++ b/Lending/Document/UIUX.CIBER_UIUXIBMB-718/UIUX.CIBER_UIUXIBMB-718_Manager_Link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces_2018\DemoSAP_UI5_Git\SAPUI_DEMO\Lending\Document\UIUX.CIBER_UIUXIBMB-718\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCC20F-DF5D-4439-AEFB-4D3721B8C6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E44D9C-3823-4D16-9294-5C5FDC856752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>OCB</t>
-  </si>
-  <si>
-    <t>Overdraft</t>
   </si>
   <si>
     <t>accountservice/Accounts?$top=500 Service</t>
@@ -246,6 +243,9 @@
         ]
     }
 }</t>
+  </si>
+  <si>
+    <t>Overdraft,Manager Account</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>18</v>
@@ -1022,10 +1022,10 @@
         <v>17</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>3</v>
